--- a/table/autoup.xlsx
+++ b/table/autoup.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="autoupEngine" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="clientConfig" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="serverConfig" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,24 +21,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">agentName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t xml:space="preserve">updateUrl</t>
   </si>
   <si>
+    <t xml:space="preserve">serverUrl</t>
+  </si>
+  <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
-    <t xml:space="preserve">运营商</t>
-  </si>
-  <si>
     <t xml:space="preserve">更新地址</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.baidu.com/</t>
+    <t xml:space="preserve">服务器地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:8313/api/values/lastupdate/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:8313/api/values/serverList/</t>
   </si>
 </sst>
 </file>
@@ -73,25 +77,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="9"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6666FF"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,12 +138,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -150,6 +164,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF6666FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -158,56 +232,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="1:4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8155339805825"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="21.9611650485437"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.8155339805825"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.378640776699"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.2281553398058"/>
+    <col collapsed="false" hidden="false" max="1023" min="3" style="1" width="12.7135922330097"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="12.7135922330097"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1377</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="http://www.baidu.com/"/>
+    <hyperlink ref="A4" r:id="rId1" display="http://localhost:8313/api/values/lastupdate/"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://localhost:8313/api/values/serverList/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -217,4 +296,30 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.9611650485437"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>